--- a/data/trans_orig/Q5413-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A04A71-6A92-451D-BECD-9CCB40F23AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{577DCF12-672E-4E60-B585-F2C534883F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{807F791A-E0A6-4B13-BE55-446F043E3EED}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{120DEF0D-0175-45D7-8260-B9E60EBFE40C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -104,265 +104,259 @@
     <t>0,36%</t>
   </si>
   <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>3,27%</t>
@@ -374,61 +368,61 @@
     <t>1,28%</t>
   </si>
   <si>
-    <t>2,41%</t>
+    <t>2,45%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>92,13%</t>
   </si>
   <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
 </sst>
 </file>
@@ -840,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD3006F-4693-4C14-8127-F1422DD82DDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127F8AF8-3BAA-4686-B45E-02B4A9CD3AA7}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1943,10 +1937,10 @@
         <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -1955,13 +1949,13 @@
         <v>29718</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,13 +1970,13 @@
         <v>483217</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H26" s="7">
         <v>633</v>
@@ -1991,13 +1985,13 @@
         <v>647312</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>1135</v>
@@ -2006,13 +2000,13 @@
         <v>1130529</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,13 +2021,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -2042,13 +2036,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -2057,13 +2051,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,10 +2143,10 @@
         <v>31</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -2161,13 +2155,13 @@
         <v>29718</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2176,13 @@
         <v>483217</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H30" s="7">
         <v>633</v>
@@ -2197,13 +2191,13 @@
         <v>647312</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M30" s="7">
         <v>1135</v>
@@ -2212,13 +2206,13 @@
         <v>1130529</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2227,13 @@
         <v>502466</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="7">
         <v>661</v>
@@ -2248,13 +2242,13 @@
         <v>676842</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M31" s="7">
         <v>1184</v>
@@ -2263,18 +2257,18 @@
         <v>1179308</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3B1386-B7DC-4FB3-9E87-5AF346F784AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EE5B40-C105-4356-BD69-3F7C071E8A0C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2313,7 +2307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3330,13 +3324,13 @@
         <v>16035</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -3345,13 +3339,13 @@
         <v>35863</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -3360,13 +3354,13 @@
         <v>51898</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3375,13 @@
         <v>29297</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -3396,13 +3390,13 @@
         <v>70678</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -3411,13 +3405,13 @@
         <v>99975</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3426,13 @@
         <v>514305</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H26" s="7">
         <v>597</v>
@@ -3483,13 +3477,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
         <v>694</v>
@@ -3498,13 +3492,13 @@
         <v>742975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
         <v>1198</v>
@@ -3513,13 +3507,13 @@
         <v>1302612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3530,13 @@
         <v>16035</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -3551,13 +3545,13 @@
         <v>35863</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M28" s="7">
         <v>46</v>
@@ -3566,13 +3560,13 @@
         <v>51898</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3581,13 @@
         <v>29297</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>65</v>
@@ -3602,13 +3596,13 @@
         <v>70678</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -3617,13 +3611,13 @@
         <v>99975</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3632,13 @@
         <v>514305</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H30" s="7">
         <v>597</v>
@@ -3689,13 +3683,13 @@
         <v>559637</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="7">
         <v>694</v>
@@ -3704,13 +3698,13 @@
         <v>742975</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M31" s="7">
         <v>1198</v>
@@ -3719,18 +3713,18 @@
         <v>1302612</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3752,7 +3746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBB754F-CB9F-47F4-B7CC-994FCD72E726}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A07F1F3-E99A-438D-8760-0B950B077560}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4816,13 +4810,13 @@
         <v>28452</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4831,13 @@
         <v>27772</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -4852,13 +4846,13 @@
         <v>51051</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -4867,13 +4861,13 @@
         <v>78823</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4882,13 @@
         <v>555671</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>600</v>
@@ -4903,10 +4897,10 @@
         <v>706312</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>98</v>
@@ -4939,13 +4933,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -4954,13 +4948,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -4969,13 +4963,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5016,13 @@
         <v>28452</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5037,13 @@
         <v>27772</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -5058,13 +5052,13 @@
         <v>51051</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>70</v>
@@ -5073,13 +5067,13 @@
         <v>78823</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5088,13 @@
         <v>555671</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>600</v>
@@ -5109,10 +5103,10 @@
         <v>706312</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>98</v>
@@ -5145,13 +5139,13 @@
         <v>591328</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="7">
         <v>655</v>
@@ -5160,13 +5154,13 @@
         <v>777931</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M31" s="7">
         <v>1282</v>
@@ -5175,18 +5169,18 @@
         <v>1369259</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5208,7 +5202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8BE1E5-3FA9-4986-A3CB-CFCEBFB7A2B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB7AC65-9C73-4C59-A018-F1E2E7D02F9F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6242,13 +6236,13 @@
         <v>8100</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -6257,13 +6251,13 @@
         <v>23644</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
@@ -6272,13 +6266,13 @@
         <v>31744</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,13 +6287,13 @@
         <v>30131</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>136</v>
@@ -6308,13 +6302,13 @@
         <v>73684</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>183</v>
@@ -6323,13 +6317,13 @@
         <v>103815</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6338,13 @@
         <v>658690</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>1528</v>
@@ -6359,13 +6353,13 @@
         <v>927954</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>2496</v>
@@ -6374,13 +6368,13 @@
         <v>1586645</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,13 +6389,13 @@
         <v>696921</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
         <v>1705</v>
@@ -6410,13 +6404,13 @@
         <v>1025283</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
         <v>2732</v>
@@ -6425,13 +6419,13 @@
         <v>1722204</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6442,13 @@
         <v>8100</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -6463,13 +6457,13 @@
         <v>23644</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>53</v>
@@ -6478,13 +6472,13 @@
         <v>31744</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6493,13 @@
         <v>30131</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>136</v>
@@ -6514,13 +6508,13 @@
         <v>73684</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>183</v>
@@ -6529,13 +6523,13 @@
         <v>103815</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6544,13 @@
         <v>658690</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H30" s="7">
         <v>1528</v>
@@ -6565,13 +6559,13 @@
         <v>927954</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>2496</v>
@@ -6580,13 +6574,13 @@
         <v>1586645</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6595,13 @@
         <v>696921</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="7">
         <v>1705</v>
@@ -6616,13 +6610,13 @@
         <v>1025283</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M31" s="7">
         <v>2732</v>
@@ -6631,18 +6625,18 @@
         <v>1722204</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5413-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{577DCF12-672E-4E60-B585-F2C534883F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85E29AC7-2CE6-4D77-BAD6-A3722E61E5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{120DEF0D-0175-45D7-8260-B9E60EBFE40C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7BDA4D32-1273-47B6-BA87-F3B17D80321F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="129">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -104,250 +104,253 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,15%</t>
+    <t>2,1%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
     <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
     <t>0,62%</t>
@@ -834,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127F8AF8-3BAA-4686-B45E-02B4A9CD3AA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BD3510-6B6E-4942-AC1A-4E16EDF92C11}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1937,10 +1940,10 @@
         <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -1949,13 +1952,13 @@
         <v>29718</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1973,13 @@
         <v>483217</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26" s="7">
         <v>633</v>
@@ -1985,13 +1988,13 @@
         <v>647312</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>1135</v>
@@ -2000,13 +2003,13 @@
         <v>1130529</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2024,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -2036,13 +2039,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -2051,13 +2054,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,10 +2146,10 @@
         <v>31</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -2155,13 +2158,13 @@
         <v>29718</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2179,13 @@
         <v>483217</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H30" s="7">
         <v>633</v>
@@ -2191,13 +2194,13 @@
         <v>647312</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M30" s="7">
         <v>1135</v>
@@ -2206,13 +2209,13 @@
         <v>1130529</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2230,13 @@
         <v>502466</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>661</v>
@@ -2242,13 +2245,13 @@
         <v>676842</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M31" s="7">
         <v>1184</v>
@@ -2257,18 +2260,18 @@
         <v>1179308</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EE5B40-C105-4356-BD69-3F7C071E8A0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF1FC51-2B20-449D-B189-FAF85AE4221A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2307,7 +2310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3324,13 +3327,13 @@
         <v>16035</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -3339,13 +3342,13 @@
         <v>35863</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -3354,13 +3357,13 @@
         <v>51898</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3480,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>694</v>
@@ -3492,13 +3495,13 @@
         <v>742975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>1198</v>
@@ -3507,13 +3510,13 @@
         <v>1302612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3533,13 @@
         <v>16035</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -3545,13 +3548,13 @@
         <v>35863</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M28" s="7">
         <v>46</v>
@@ -3560,13 +3563,13 @@
         <v>51898</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3686,13 @@
         <v>559637</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>694</v>
@@ -3698,13 +3701,13 @@
         <v>742975</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M31" s="7">
         <v>1198</v>
@@ -3713,18 +3716,18 @@
         <v>1302612</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +3749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A07F1F3-E99A-438D-8760-0B950B077560}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464CA3E6-1510-45C4-99F2-C5F6322C0D31}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4864,10 +4867,10 @@
         <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4885,13 @@
         <v>555671</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>600</v>
@@ -4897,10 +4900,10 @@
         <v>706312</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>98</v>
@@ -4933,13 +4936,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -4948,13 +4951,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -4963,13 +4966,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,10 +5073,10 @@
         <v>91</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5091,13 @@
         <v>555671</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>600</v>
@@ -5103,10 +5106,10 @@
         <v>706312</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>98</v>
@@ -5139,13 +5142,13 @@
         <v>591328</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>655</v>
@@ -5154,13 +5157,13 @@
         <v>777931</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M31" s="7">
         <v>1282</v>
@@ -5169,18 +5172,18 @@
         <v>1369259</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5202,7 +5205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB7AC65-9C73-4C59-A018-F1E2E7D02F9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79831C97-1B49-4024-A4B0-36A821F4D65F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6236,10 +6239,10 @@
         <v>8100</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>82</v>
@@ -6251,13 +6254,13 @@
         <v>23644</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
@@ -6266,13 +6269,13 @@
         <v>31744</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6290,13 @@
         <v>30131</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>136</v>
@@ -6302,13 +6305,13 @@
         <v>73684</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>183</v>
@@ -6317,13 +6320,13 @@
         <v>103815</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6341,13 @@
         <v>658690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>1528</v>
@@ -6353,13 +6356,13 @@
         <v>927954</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>2496</v>
@@ -6368,13 +6371,13 @@
         <v>1586645</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6392,13 @@
         <v>696921</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>1705</v>
@@ -6404,13 +6407,13 @@
         <v>1025283</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>2732</v>
@@ -6419,13 +6422,13 @@
         <v>1722204</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,10 +6445,10 @@
         <v>8100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>82</v>
@@ -6457,13 +6460,13 @@
         <v>23644</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>53</v>
@@ -6472,13 +6475,13 @@
         <v>31744</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6496,13 @@
         <v>30131</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>136</v>
@@ -6508,13 +6511,13 @@
         <v>73684</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>183</v>
@@ -6523,13 +6526,13 @@
         <v>103815</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6547,13 @@
         <v>658690</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H30" s="7">
         <v>1528</v>
@@ -6559,13 +6562,13 @@
         <v>927954</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M30" s="7">
         <v>2496</v>
@@ -6574,13 +6577,13 @@
         <v>1586645</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6598,13 @@
         <v>696921</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>1705</v>
@@ -6610,13 +6613,13 @@
         <v>1025283</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M31" s="7">
         <v>2732</v>
@@ -6625,18 +6628,18 @@
         <v>1722204</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5413-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85E29AC7-2CE6-4D77-BAD6-A3722E61E5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2317796-BC62-4DFF-8FFB-31E29A92D37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7BDA4D32-1273-47B6-BA87-F3B17D80321F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CAE4ED4-37EE-4D22-9BF0-418B6F52AA30}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -104,25 +104,25 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,08%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>2,91%</t>
@@ -131,7 +131,7 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>4,73%</t>
+    <t>4,78%</t>
   </si>
   <si>
     <t>2,23%</t>
@@ -140,130 +140,130 @@
     <t>1,26%</t>
   </si>
   <si>
-    <t>3,54%</t>
+    <t>3,74%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>1,77%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>7,66%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>91,9%</t>
   </si>
   <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>89,03%</t>
   </si>
   <si>
     <t>85,66%</t>
   </si>
   <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>88,34%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>Población según si es capaz de vestirse solo en 2016 (Tasa respuesta: 19,52%)</t>
@@ -272,79 +272,79 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>7,37%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>90,79%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
   </si>
   <si>
     <t>92,17%</t>
   </si>
   <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
@@ -353,13 +353,16 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,62%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,54%</t>
   </si>
   <si>
     <t>3,27%</t>
@@ -371,61 +374,61 @@
     <t>1,28%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>2,41%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
   </si>
   <si>
     <t>92,13%</t>
   </si>
   <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
 </sst>
 </file>
@@ -837,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BD3510-6B6E-4942-AC1A-4E16EDF92C11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1DFC09-4CDD-43C2-A755-89F921669575}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2293,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF1FC51-2B20-449D-B189-FAF85AE4221A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C923B4C7-975D-4B88-8F9F-92E073695EBA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3378,13 +3381,13 @@
         <v>29297</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -3393,13 +3396,13 @@
         <v>70678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -3408,13 +3411,13 @@
         <v>99975</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3432,13 @@
         <v>514305</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H26" s="7">
         <v>597</v>
@@ -3584,13 +3587,13 @@
         <v>29297</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>65</v>
@@ -3599,13 +3602,13 @@
         <v>70678</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -3614,13 +3617,13 @@
         <v>99975</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3638,13 @@
         <v>514305</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H30" s="7">
         <v>597</v>
@@ -3749,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464CA3E6-1510-45C4-99F2-C5F6322C0D31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3F2282-425B-4A23-8283-EFFED7F35945}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4813,13 +4816,13 @@
         <v>28452</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4837,13 @@
         <v>27772</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -4849,13 +4852,13 @@
         <v>51051</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -4864,10 +4867,10 @@
         <v>78823</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>92</v>
@@ -5019,13 +5022,13 @@
         <v>28452</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5043,13 @@
         <v>27772</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -5055,13 +5058,13 @@
         <v>51051</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>70</v>
@@ -5070,10 +5073,10 @@
         <v>78823</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>92</v>
@@ -5205,7 +5208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79831C97-1B49-4024-A4B0-36A821F4D65F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A802D8D7-81F6-4116-963D-BBBADD917A22}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6245,7 +6248,7 @@
         <v>104</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -6254,13 +6257,13 @@
         <v>23644</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
@@ -6269,13 +6272,13 @@
         <v>31744</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,13 +6293,13 @@
         <v>30131</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>136</v>
@@ -6305,13 +6308,13 @@
         <v>73684</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>183</v>
@@ -6320,13 +6323,13 @@
         <v>103815</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,13 +6344,13 @@
         <v>658690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>1528</v>
@@ -6356,13 +6359,13 @@
         <v>927954</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>2496</v>
@@ -6371,13 +6374,13 @@
         <v>1586645</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,7 +6454,7 @@
         <v>104</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -6460,13 +6463,13 @@
         <v>23644</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>53</v>
@@ -6475,13 +6478,13 @@
         <v>31744</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6499,13 @@
         <v>30131</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>136</v>
@@ -6511,13 +6514,13 @@
         <v>73684</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>183</v>
@@ -6526,13 +6529,13 @@
         <v>103815</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6550,13 @@
         <v>658690</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H30" s="7">
         <v>1528</v>
@@ -6562,13 +6565,13 @@
         <v>927954</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>2496</v>
@@ -6577,13 +6580,13 @@
         <v>1586645</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5413-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2317796-BC62-4DFF-8FFB-31E29A92D37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{716FF66C-647D-431E-8AAF-6658083EDFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CAE4ED4-37EE-4D22-9BF0-418B6F52AA30}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{55FE923F-CC66-437B-A420-253AD887E788}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="315">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No puede</t>
@@ -83,19 +83,178 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>0,92%</t>
@@ -122,9 +281,6 @@
     <t>0,98%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
     <t>2,91%</t>
   </si>
   <si>
@@ -170,24 +326,168 @@
     <t>97,09%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
     <t>94,72%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
     <t>2,87%</t>
   </si>
   <si>
@@ -269,6 +569,144 @@
     <t>Población según si es capaz de vestirse solo en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
     <t>1,33%</t>
   </si>
   <si>
@@ -278,9 +716,6 @@
     <t>2,5%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
     <t>1,57%</t>
   </si>
   <si>
@@ -329,9 +764,6 @@
     <t>95,57%</t>
   </si>
   <si>
-    <t>90,79%</t>
-  </si>
-  <si>
     <t>88,13%</t>
   </si>
   <si>
@@ -350,85 +782,208 @@
     <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
 </sst>
 </file>
@@ -840,8 +1395,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1DFC09-4CDD-43C2-A755-89F921669575}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BF3F75-B9D3-41E5-92D4-FCFBEC707EA6}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1868,10 +2423,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>4640</v>
+        <v>1788</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1883,10 +2438,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>14420</v>
+        <v>3761</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
@@ -1898,10 +2453,10 @@
         <v>24</v>
       </c>
       <c r="M24" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>19061</v>
+        <v>5549</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>25</v>
@@ -1919,49 +2474,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>14609</v>
+        <v>2715</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>4</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3761</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="7">
-        <v>14</v>
-      </c>
-      <c r="I25" s="7">
-        <v>15109</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>7</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6476</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="M25" s="7">
-        <v>30</v>
-      </c>
-      <c r="N25" s="7">
-        <v>29718</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,49 +2525,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>502</v>
+        <v>298</v>
       </c>
       <c r="D26" s="7">
-        <v>483217</v>
+        <v>288079</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="7">
+        <v>363</v>
+      </c>
+      <c r="I26" s="7">
+        <v>335412</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="7">
-        <v>633</v>
-      </c>
-      <c r="I26" s="7">
-        <v>647312</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>661</v>
+      </c>
+      <c r="N26" s="7">
+        <v>623492</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1135</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1130529</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,102 +2576,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>4640</v>
+        <v>2852</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H28" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I28" s="7">
-        <v>14420</v>
+        <v>10660</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N28" s="7">
-        <v>19061</v>
+        <v>13512</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,49 +2680,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D29" s="7">
-        <v>14609</v>
+        <v>11893</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="H29" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>15109</v>
+        <v>11348</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M29" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N29" s="7">
-        <v>29718</v>
+        <v>23242</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,49 +2731,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>502</v>
+        <v>204</v>
       </c>
       <c r="D30" s="7">
-        <v>483217</v>
+        <v>195138</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H30" s="7">
-        <v>633</v>
+        <v>270</v>
       </c>
       <c r="I30" s="7">
-        <v>647312</v>
+        <v>311900</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="M30" s="7">
-        <v>1135</v>
+        <v>474</v>
       </c>
       <c r="N30" s="7">
-        <v>1130529</v>
+        <v>507037</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,63 +2782,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4640</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="7">
+        <v>14</v>
+      </c>
+      <c r="I32" s="7">
+        <v>14420</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" s="7">
+        <v>19</v>
+      </c>
+      <c r="N32" s="7">
+        <v>19061</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>16</v>
+      </c>
+      <c r="D33" s="7">
+        <v>14609</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="7">
+        <v>14</v>
+      </c>
+      <c r="I33" s="7">
+        <v>15109</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M33" s="7">
+        <v>30</v>
+      </c>
+      <c r="N33" s="7">
+        <v>29718</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>502</v>
+      </c>
+      <c r="D34" s="7">
+        <v>483217</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="7">
+        <v>633</v>
+      </c>
+      <c r="I34" s="7">
+        <v>647312</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1135</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1130529</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>523</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>502466</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="7">
         <v>661</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>676842</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="7">
         <v>1184</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1179308</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2296,8 +3058,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C923B4C7-975D-4B88-8F9F-92E073695EBA}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C08559-6E4E-49B0-9F73-6B73D82FE40D}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2313,7 +3075,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3324,49 +4086,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>16035</v>
+        <v>5116</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H24" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>35863</v>
+        <v>2921</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="M24" s="7">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="N24" s="7">
-        <v>51898</v>
+        <v>8036</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,49 +4137,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>29297</v>
+        <v>12346</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I25" s="7">
-        <v>70678</v>
+        <v>16793</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="M25" s="7">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="N25" s="7">
-        <v>99975</v>
+        <v>29139</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,49 +4188,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>464</v>
+        <v>266</v>
       </c>
       <c r="D26" s="7">
-        <v>514305</v>
+        <v>292325</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7">
-        <v>597</v>
+        <v>325</v>
       </c>
       <c r="I26" s="7">
-        <v>636434</v>
+        <v>334282</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="M26" s="7">
-        <v>1061</v>
+        <v>591</v>
       </c>
       <c r="N26" s="7">
-        <v>1150739</v>
+        <v>626607</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,102 +4239,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7">
-        <v>16035</v>
+        <v>10920</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="H28" s="7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I28" s="7">
-        <v>35863</v>
+        <v>32942</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="M28" s="7">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N28" s="7">
-        <v>51898</v>
+        <v>43862</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,49 +4343,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D29" s="7">
-        <v>29297</v>
+        <v>16952</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="H29" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I29" s="7">
-        <v>70678</v>
+        <v>53885</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="M29" s="7">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="N29" s="7">
-        <v>99975</v>
+        <v>70836</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,49 +4394,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>464</v>
+        <v>198</v>
       </c>
       <c r="D30" s="7">
-        <v>514305</v>
+        <v>221980</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H30" s="7">
-        <v>597</v>
+        <v>272</v>
       </c>
       <c r="I30" s="7">
-        <v>636434</v>
+        <v>302152</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="M30" s="7">
-        <v>1061</v>
+        <v>470</v>
       </c>
       <c r="N30" s="7">
-        <v>1150739</v>
+        <v>524132</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,63 +4445,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7">
+        <v>16035</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="7">
+        <v>32</v>
+      </c>
+      <c r="I32" s="7">
+        <v>35863</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M32" s="7">
+        <v>46</v>
+      </c>
+      <c r="N32" s="7">
+        <v>51898</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>26</v>
+      </c>
+      <c r="D33" s="7">
+        <v>29297</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="7">
+        <v>65</v>
+      </c>
+      <c r="I33" s="7">
+        <v>70678</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M33" s="7">
+        <v>91</v>
+      </c>
+      <c r="N33" s="7">
+        <v>99975</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>464</v>
+      </c>
+      <c r="D34" s="7">
+        <v>514305</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="7">
+        <v>597</v>
+      </c>
+      <c r="I34" s="7">
+        <v>636434</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1061</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1150739</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>504</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>559637</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="7">
         <v>694</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>742975</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="7">
         <v>1198</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1302612</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3752,8 +4721,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3F2282-425B-4A23-8283-EFFED7F35945}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E93439-FF90-4D72-8A5B-EDA36823DEDB}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3769,7 +4738,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4780,49 +5749,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>7885</v>
+        <v>2019</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="H24" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>20568</v>
+        <v>1037</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="N24" s="7">
-        <v>28452</v>
+        <v>3056</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,49 +5800,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>27772</v>
+        <v>8838</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>51051</v>
+        <v>8245</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="N25" s="7">
-        <v>78823</v>
+        <v>17083</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,49 +5851,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>587</v>
+        <v>314</v>
       </c>
       <c r="D26" s="7">
-        <v>555671</v>
+        <v>323473</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
-        <v>600</v>
+        <v>345</v>
       </c>
       <c r="I26" s="7">
-        <v>706312</v>
+        <v>368480</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
-        <v>1187</v>
+        <v>659</v>
       </c>
       <c r="N26" s="7">
-        <v>1261983</v>
+        <v>691953</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,102 +5902,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="7">
-        <v>7885</v>
+        <v>5866</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="7">
-        <v>20568</v>
+        <v>19530</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N28" s="7">
-        <v>28452</v>
+        <v>25396</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,49 +6006,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>22</v>
+      </c>
+      <c r="D29" s="7">
+        <v>18934</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H29" s="7">
         <v>31</v>
       </c>
-      <c r="D29" s="7">
-        <v>27772</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="7">
-        <v>39</v>
-      </c>
       <c r="I29" s="7">
-        <v>51051</v>
+        <v>42807</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="N29" s="7">
-        <v>78823</v>
+        <v>61740</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,49 +6057,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>587</v>
+        <v>273</v>
       </c>
       <c r="D30" s="7">
-        <v>555671</v>
+        <v>232198</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
-        <v>600</v>
+        <v>255</v>
       </c>
       <c r="I30" s="7">
-        <v>706312</v>
+        <v>337832</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
-        <v>1187</v>
+        <v>528</v>
       </c>
       <c r="N30" s="7">
-        <v>1261983</v>
+        <v>570031</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,63 +6108,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7">
+        <v>7885</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="7">
+        <v>16</v>
+      </c>
+      <c r="I32" s="7">
+        <v>20568</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M32" s="7">
+        <v>25</v>
+      </c>
+      <c r="N32" s="7">
+        <v>28452</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>31</v>
+      </c>
+      <c r="D33" s="7">
+        <v>27772</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" s="7">
+        <v>39</v>
+      </c>
+      <c r="I33" s="7">
+        <v>51051</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M33" s="7">
+        <v>70</v>
+      </c>
+      <c r="N33" s="7">
+        <v>78823</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>587</v>
+      </c>
+      <c r="D34" s="7">
+        <v>555671</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H34" s="7">
+        <v>600</v>
+      </c>
+      <c r="I34" s="7">
+        <v>706312</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1187</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1261983</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>627</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>591328</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="7">
         <v>655</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>777931</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="7">
         <v>1282</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1369259</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5208,8 +6384,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A802D8D7-81F6-4116-963D-BBBADD917A22}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7131B076-C83B-4D30-9B48-D42FC1A7A4A0}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5225,7 +6401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6236,49 +7412,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>8100</v>
+        <v>1498</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>247</v>
       </c>
       <c r="H24" s="7">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>23644</v>
+        <v>1543</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
+        <v>248</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="M24" s="7">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="N24" s="7">
-        <v>31744</v>
+        <v>3041</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,49 +7463,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>30131</v>
+        <v>5947</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="H25" s="7">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>73684</v>
+        <v>7222</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>253</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>255</v>
       </c>
       <c r="M25" s="7">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="N25" s="7">
-        <v>103815</v>
+        <v>13168</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>256</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,49 +7514,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>968</v>
+        <v>559</v>
       </c>
       <c r="D26" s="7">
-        <v>658690</v>
+        <v>360721</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>260</v>
       </c>
       <c r="H26" s="7">
-        <v>1528</v>
+        <v>807</v>
       </c>
       <c r="I26" s="7">
-        <v>927954</v>
+        <v>598842</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="M26" s="7">
-        <v>2496</v>
+        <v>1366</v>
       </c>
       <c r="N26" s="7">
-        <v>1586645</v>
+        <v>959564</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>264</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,102 +7565,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>696921</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H27" s="7">
-        <v>1705</v>
+        <v>825</v>
       </c>
       <c r="I27" s="7">
-        <v>1025283</v>
+        <v>607607</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M27" s="7">
-        <v>2732</v>
+        <v>1395</v>
       </c>
       <c r="N27" s="7">
-        <v>1722204</v>
+        <v>975773</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28" s="7">
-        <v>8100</v>
+        <v>6125</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="H28" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I28" s="7">
-        <v>23644</v>
+        <v>19602</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N28" s="7">
-        <v>31744</v>
+        <v>25727</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>111</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,49 +7669,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D29" s="7">
-        <v>30131</v>
+        <v>21926</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>112</v>
+        <v>274</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>114</v>
+        <v>276</v>
       </c>
       <c r="H29" s="7">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I29" s="7">
-        <v>73684</v>
+        <v>58455</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>277</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="M29" s="7">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="N29" s="7">
-        <v>103815</v>
+        <v>80381</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,49 +7720,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>968</v>
+        <v>409</v>
       </c>
       <c r="D30" s="7">
-        <v>658690</v>
+        <v>253962</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>285</v>
       </c>
       <c r="H30" s="7">
-        <v>1528</v>
+        <v>721</v>
       </c>
       <c r="I30" s="7">
-        <v>927954</v>
+        <v>347301</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="M30" s="7">
-        <v>2496</v>
+        <v>1130</v>
       </c>
       <c r="N30" s="7">
-        <v>1586645</v>
+        <v>601263</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,63 +7771,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>457</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282013</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425358</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707371</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7">
+        <v>7623</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H32" s="7">
+        <v>41</v>
+      </c>
+      <c r="I32" s="7">
+        <v>21145</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M32" s="7">
+        <v>53</v>
+      </c>
+      <c r="N32" s="7">
+        <v>28768</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>47</v>
+      </c>
+      <c r="D33" s="7">
+        <v>27872</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H33" s="7">
+        <v>136</v>
+      </c>
+      <c r="I33" s="7">
+        <v>65677</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M33" s="7">
+        <v>183</v>
+      </c>
+      <c r="N33" s="7">
+        <v>93549</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>968</v>
+      </c>
+      <c r="D34" s="7">
+        <v>614683</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1528</v>
+      </c>
+      <c r="I34" s="7">
+        <v>946143</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2496</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1560826</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1027</v>
       </c>
-      <c r="D31" s="7">
-        <v>696921</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>650178</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="7">
         <v>1705</v>
       </c>
-      <c r="I31" s="7">
-        <v>1025283</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>1032965</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="7">
         <v>2732</v>
       </c>
-      <c r="N31" s="7">
-        <v>1722204</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>1683143</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
